--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.165867328643799</v>
+        <v>6.167015075683594</v>
       </c>
       <c r="C2" t="n">
-        <v>5.020578861236572</v>
+        <v>5.021564960479736</v>
       </c>
       <c r="D2" t="n">
-        <v>9.113711357116699</v>
+        <v>9.114575386047363</v>
       </c>
       <c r="E2" t="n">
-        <v>6.708122253417969</v>
+        <v>6.708620071411133</v>
       </c>
       <c r="F2" t="n">
-        <v>8.259322166442871</v>
+        <v>8.259881019592285</v>
       </c>
       <c r="G2" t="n">
-        <v>6.446697235107422</v>
+        <v>6.447554588317871</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495014190673828</v>
+        <v>7.495526790618896</v>
       </c>
       <c r="I2" t="n">
-        <v>4.168930530548096</v>
+        <v>4.170144557952881</v>
       </c>
       <c r="J2" t="n">
-        <v>4.651000022888184</v>
+        <v>4.651217460632324</v>
       </c>
       <c r="K2" t="n">
-        <v>4.205680847167969</v>
+        <v>4.206525802612305</v>
       </c>
       <c r="L2" t="n">
-        <v>5.314105987548828</v>
+        <v>5.314768314361572</v>
       </c>
       <c r="M2" t="n">
-        <v>4.289550304412842</v>
+        <v>4.288539409637451</v>
       </c>
       <c r="N2" t="n">
-        <v>6.511447429656982</v>
+        <v>6.512104988098145</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8789486478710052</v>
+        <v>0.8789600675583494</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8978451558495165</v>
+        <v>0.8978629330047793</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9482017086982727</v>
+        <v>0.9482134483337402</v>
       </c>
       <c r="E3" t="n">
-        <v>0.849448609887884</v>
+        <v>0.8494594151193028</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8757957537800579</v>
+        <v>0.8758056276430518</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8355213000717825</v>
+        <v>0.8355668029428398</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8690850416309813</v>
+        <v>0.8691076848581646</v>
       </c>
       <c r="I3" t="n">
-        <v>0.854211610693463</v>
+        <v>0.8542647954356464</v>
       </c>
       <c r="J3" t="n">
-        <v>0.749942024246506</v>
+        <v>0.7499664533397425</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9002279541302175</v>
+        <v>0.9002557534007399</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8913965979159273</v>
+        <v>0.8914197426758065</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7603214751468615</v>
+        <v>0.7600332394744573</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9259012317971179</v>
+        <v>0.9259143267807207</v>
       </c>
     </row>
   </sheetData>

--- a/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
+++ b/release/figures/SBharadwaj_20240318_Sample_1_4_7_8_2_5_06_output_v0.1_reIntegration_cca.cluster.0.5_speed_coherence.xlsx
@@ -507,43 +507,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6.167015075683594</v>
+        <v>6.165867328643799</v>
       </c>
       <c r="C2" t="n">
-        <v>5.021564960479736</v>
+        <v>5.020578861236572</v>
       </c>
       <c r="D2" t="n">
-        <v>9.114575386047363</v>
+        <v>9.113711357116699</v>
       </c>
       <c r="E2" t="n">
-        <v>6.708620071411133</v>
+        <v>6.708122253417969</v>
       </c>
       <c r="F2" t="n">
-        <v>8.259881019592285</v>
+        <v>8.259322166442871</v>
       </c>
       <c r="G2" t="n">
-        <v>6.447554588317871</v>
+        <v>6.446697235107422</v>
       </c>
       <c r="H2" t="n">
-        <v>7.495526790618896</v>
+        <v>7.495014190673828</v>
       </c>
       <c r="I2" t="n">
-        <v>4.170144557952881</v>
+        <v>4.168930530548096</v>
       </c>
       <c r="J2" t="n">
-        <v>4.651217460632324</v>
+        <v>4.651000022888184</v>
       </c>
       <c r="K2" t="n">
-        <v>4.206525802612305</v>
+        <v>4.205680847167969</v>
       </c>
       <c r="L2" t="n">
-        <v>5.314768314361572</v>
+        <v>5.314105987548828</v>
       </c>
       <c r="M2" t="n">
-        <v>4.288539409637451</v>
+        <v>4.289550304412842</v>
       </c>
       <c r="N2" t="n">
-        <v>6.512104988098145</v>
+        <v>6.511447429656982</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +553,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8789600675583494</v>
+        <v>0.8789486478710052</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8978629330047793</v>
+        <v>0.8978451558495165</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9482134483337402</v>
+        <v>0.9482017086982727</v>
       </c>
       <c r="E3" t="n">
-        <v>0.8494594151193028</v>
+        <v>0.849448609887884</v>
       </c>
       <c r="F3" t="n">
-        <v>0.8758056276430518</v>
+        <v>0.8757957537800579</v>
       </c>
       <c r="G3" t="n">
-        <v>0.8355668029428398</v>
+        <v>0.8355213000717825</v>
       </c>
       <c r="H3" t="n">
-        <v>0.8691076848581646</v>
+        <v>0.8690850416309813</v>
       </c>
       <c r="I3" t="n">
-        <v>0.8542647954356464</v>
+        <v>0.854211610693463</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7499664533397425</v>
+        <v>0.749942024246506</v>
       </c>
       <c r="K3" t="n">
-        <v>0.9002557534007399</v>
+        <v>0.9002279541302175</v>
       </c>
       <c r="L3" t="n">
-        <v>0.8914197426758065</v>
+        <v>0.8913965979159273</v>
       </c>
       <c r="M3" t="n">
-        <v>0.7600332394744573</v>
+        <v>0.7603214751468615</v>
       </c>
       <c r="N3" t="n">
-        <v>0.9259143267807207</v>
+        <v>0.9259012317971179</v>
       </c>
     </row>
   </sheetData>
